--- a/test.xlsx
+++ b/test.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tailinda\Documents\GitHub\Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>分店名稱</t>
   </si>
@@ -22,6 +27,9 @@
     <t>類型1</t>
   </si>
   <si>
+    <t>類型2</t>
+  </si>
+  <si>
     <t>平均價格</t>
   </si>
   <si>
@@ -109,6 +117,18 @@
     <t>小吃</t>
   </si>
   <si>
+    <t>精緻高級</t>
+  </si>
+  <si>
+    <t>宵夜</t>
+  </si>
+  <si>
+    <t>燒烤</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>· 均消 $623</t>
   </si>
   <si>
@@ -137,9 +157,6 @@
   </si>
   <si>
     <t>· 均消 $900</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>· 均消 $250</t>
@@ -271,12 +288,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -284,8 +301,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -331,15 +355,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -381,7 +413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,9 +445,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,6 +480,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -622,14 +656,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,308 +689,358 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E15" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="F6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F16" t="s">
         <v>66</v>
       </c>
-      <c r="F11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
+      <c r="G16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="155">
   <si>
     <t>分店名稱</t>
   </si>
@@ -46,9 +46,54 @@
     <t>評論數</t>
   </si>
   <si>
+    <t>OKEY DOKEY</t>
+  </si>
+  <si>
+    <t>樂野食</t>
+  </si>
+  <si>
+    <t>馬辣 麻辣鍋 (南京店)</t>
+  </si>
+  <si>
+    <t>馬辣頂級麻辣鴛鴦火鍋</t>
+  </si>
+  <si>
+    <t>TankQ Cafe &amp; Bar</t>
+  </si>
+  <si>
+    <t>米朗琪咖啡館</t>
+  </si>
+  <si>
+    <t>柒串燒屋</t>
+  </si>
+  <si>
+    <t>WAYO 哇優</t>
+  </si>
+  <si>
+    <t>泰街頭</t>
+  </si>
+  <si>
+    <t>藏壽司くら寿司Kura Sushi</t>
+  </si>
+  <si>
+    <t>欣葉日本料理</t>
+  </si>
+  <si>
+    <t>新天地雅悅會館</t>
+  </si>
+  <si>
+    <t>Guru House</t>
+  </si>
+  <si>
+    <t>八色韓式烤肉</t>
+  </si>
+  <si>
     <t>韓金館</t>
   </si>
   <si>
+    <t>阜杭豆漿</t>
+  </si>
+  <si>
     <t>小六食堂</t>
   </si>
   <si>
@@ -64,6 +109,9 @@
     <t>青沐初食</t>
   </si>
   <si>
+    <t>金色三麥 台北京站店</t>
+  </si>
+  <si>
     <t>woosaパンケーキ 屋莎鬆餅屋</t>
   </si>
   <si>
@@ -73,9 +121,6 @@
     <t>Broccoli Beer 韓國餐酒食堂</t>
   </si>
   <si>
-    <t>金色三麥 台北京站店</t>
-  </si>
-  <si>
     <t>Campus Cafe</t>
   </si>
   <si>
@@ -91,27 +136,42 @@
     <t>南西六號公寓</t>
   </si>
   <si>
+    <t>約會餐廳</t>
+  </si>
+  <si>
+    <t>義式料理</t>
+  </si>
+  <si>
+    <t>火鍋</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t>日本料理</t>
+  </si>
+  <si>
     <t>韓式料理</t>
   </si>
   <si>
-    <t>日本料理</t>
-  </si>
-  <si>
-    <t>義式料理</t>
+    <t>泰式料理</t>
+  </si>
+  <si>
+    <t>合菜</t>
   </si>
   <si>
     <t>早午餐</t>
   </si>
   <si>
+    <t>小吃</t>
+  </si>
+  <si>
+    <t>餐酒館/酒吧</t>
+  </si>
+  <si>
     <t>甜點</t>
   </si>
   <si>
-    <t>餐酒館/酒吧</t>
-  </si>
-  <si>
-    <t>咖啡</t>
-  </si>
-  <si>
     <t>美式料理</t>
   </si>
   <si>
@@ -121,43 +181,70 @@
     <t>咖哩</t>
   </si>
   <si>
+    <t>精緻高級</t>
+  </si>
+  <si>
+    <t>宵夜</t>
+  </si>
+  <si>
     <t>燒烤</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>居酒屋</t>
   </si>
   <si>
-    <t>精緻高級</t>
-  </si>
-  <si>
-    <t>約會餐廳</t>
-  </si>
-  <si>
-    <t>宵夜</t>
-  </si>
-  <si>
     <t>中式料理</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>合菜</t>
+    <t>早餐</t>
   </si>
   <si>
     <t>蛋糕</t>
   </si>
   <si>
+    <t>· 均消 $623</t>
+  </si>
+  <si>
+    <t>· 均消 $400</t>
+  </si>
+  <si>
+    <t>· 均消 $699</t>
+  </si>
+  <si>
+    <t>· 均消 $660</t>
+  </si>
+  <si>
+    <t>· 均消 $369</t>
+  </si>
+  <si>
+    <t>· 均消 $300</t>
+  </si>
+  <si>
+    <t>· 均消 $200</t>
+  </si>
+  <si>
+    <t>· 均消 $215</t>
+  </si>
+  <si>
+    <t>· 均消 $520</t>
+  </si>
+  <si>
+    <t>· 均消 $900</t>
+  </si>
+  <si>
+    <t>· 均消 $250</t>
+  </si>
+  <si>
+    <t>· 均消 $495</t>
+  </si>
+  <si>
     <t>· 均消 $500</t>
   </si>
   <si>
-    <t>· 均消 $300</t>
-  </si>
-  <si>
-    <t>· 均消 $400</t>
-  </si>
-  <si>
-    <t>· 均消 $200</t>
+    <t>· 均消 $120</t>
   </si>
   <si>
     <t>· 均消 $279</t>
@@ -166,21 +253,66 @@
     <t>· 均消 $350</t>
   </si>
   <si>
+    <t>· 均消 $622</t>
+  </si>
+  <si>
     <t>· 均消 $700</t>
   </si>
   <si>
-    <t>· 均消 $622</t>
-  </si>
-  <si>
     <t>· 均消 $319</t>
   </si>
   <si>
     <t>· 均消 $280</t>
   </si>
   <si>
+    <t>臺北市大安區光復南路308巷47號</t>
+  </si>
+  <si>
+    <t>臺北市大安區忠孝東路三段217巷2弄16號</t>
+  </si>
+  <si>
+    <t>臺北市松山區南京東路三段285號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區西寧南路157號2f</t>
+  </si>
+  <si>
+    <t>臺北市中山區松江路90巷3之2號</t>
+  </si>
+  <si>
+    <t>臺北市中山區中山北路二段16巷23號</t>
+  </si>
+  <si>
+    <t>臺北市中山區長安東路一段46號</t>
+  </si>
+  <si>
+    <t>臺北市大安區復興南路一段107巷45號</t>
+  </si>
+  <si>
+    <t>臺北市大安區溫州街74巷6號1樓</t>
+  </si>
+  <si>
+    <t>臺北市中山區南京東路二段101號B1</t>
+  </si>
+  <si>
+    <t>臺北市松山區健康路156號</t>
+  </si>
+  <si>
+    <t>臺北市松山區八德路四段138號10樓</t>
+  </si>
+  <si>
+    <t>臺北市萬華區成都路27巷10號</t>
+  </si>
+  <si>
+    <t>臺北市大安區忠孝東路四段223巷10弄3號</t>
+  </si>
+  <si>
     <t>臺北市中山區林森北路119巷68號</t>
   </si>
   <si>
+    <t>臺北市中正區忠孝東路一段108號2樓</t>
+  </si>
+  <si>
     <t>臺北市中山區松江路259巷8號</t>
   </si>
   <si>
@@ -196,6 +328,9 @@
     <t>臺北市大安區敦化南路二段265巷7號</t>
   </si>
   <si>
+    <t>臺北市大同區承德路一段1號</t>
+  </si>
+  <si>
     <t>臺北市大同區承德路一段1號2樓號</t>
   </si>
   <si>
@@ -205,9 +340,6 @@
     <t>台北市中山區松江路40號</t>
   </si>
   <si>
-    <t>臺北市大同區承德路一段1號</t>
-  </si>
-  <si>
     <t>臺北市大安區忠孝東路三段203號</t>
   </si>
   <si>
@@ -223,36 +355,90 @@
     <t>臺北市大同區南京西路18巷4弄6之1號</t>
   </si>
   <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
     <t>4.3</t>
   </si>
   <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>4.5</t>
+    <t>3.6</t>
   </si>
   <si>
     <t>4.4</t>
   </si>
   <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
     <t>3.7</t>
   </si>
   <si>
     <t>3.5</t>
   </si>
   <si>
+    <t>(140則評論)</t>
+  </si>
+  <si>
+    <t>(338則評論)</t>
+  </si>
+  <si>
+    <t>(7則評論)</t>
+  </si>
+  <si>
+    <t>(1則評論)</t>
+  </si>
+  <si>
+    <t>(141則評論)</t>
+  </si>
+  <si>
+    <t>(48則評論)</t>
+  </si>
+  <si>
+    <t>(226則評論)</t>
+  </si>
+  <si>
+    <t>(105則評論)</t>
+  </si>
+  <si>
+    <t>(176則評論)</t>
+  </si>
+  <si>
+    <t>(134則評論)</t>
+  </si>
+  <si>
+    <t>(16則評論)</t>
+  </si>
+  <si>
+    <t>(3則評論)</t>
+  </si>
+  <si>
+    <t>(193則評論)</t>
+  </si>
+  <si>
+    <t>(113則評論)</t>
+  </si>
+  <si>
     <t>(81則評論)</t>
   </si>
   <si>
+    <t>(90則評論)</t>
+  </si>
+  <si>
     <t>(100則評論)</t>
   </si>
   <si>
@@ -268,6 +454,9 @@
     <t>(199則評論)</t>
   </si>
   <si>
+    <t>(10則評論)</t>
+  </si>
+  <si>
     <t>(62則評論)</t>
   </si>
   <si>
@@ -277,13 +466,13 @@
     <t>(82則評論)</t>
   </si>
   <si>
-    <t>(10則評論)</t>
-  </si>
-  <si>
     <t>(123則評論)</t>
   </si>
   <si>
     <t>(79則評論)</t>
+  </si>
+  <si>
+    <t>(94則評論)</t>
   </si>
   <si>
     <t>(114則評論)</t>
@@ -647,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,31 +879,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -722,31 +911,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -754,31 +943,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -786,31 +975,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -818,31 +1007,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -850,31 +1039,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -882,31 +1071,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -914,31 +1103,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -946,31 +1135,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -978,31 +1167,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1010,31 +1199,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1042,31 +1231,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1074,31 +1263,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1106,31 +1295,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1138,31 +1327,511 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" t="s">
+        <v>115</v>
+      </c>
+      <c r="J23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
         <v>41</v>
       </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="H16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" t="s">
-        <v>91</v>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
